--- a/tests/fixtures/translations_sync.xlsx
+++ b/tests/fixtures/translations_sync.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosherrero/projects/connect-cli/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B174233-B3F1-9B45-BDEE-490D41CC8233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE3916-AA21-894D-BBFA-99BC26AB8A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="1720" windowWidth="35620" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="1" r:id="rId1"/>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:AB98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1687,7 +1687,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1839,7 @@
       <formula1>"Disabled,Enabled"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{B4FC5392-A756-F544-921C-0A83426FE2C0}">
-      <formula1>"-,delete,update,create"</formula1>
+      <formula1>"-"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1862,9 +1862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EF1FCC-8CBB-134E-BA5D-137ED4CA26F7}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/fixtures/translations_sync.xlsx
+++ b/tests/fixtures/translations_sync.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosherrero/projects/connect-cli/tests/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE3916-AA21-894D-BBFA-99BC26AB8A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D781F3A3-D18E-5741-8737-F815B6233701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="1" r:id="rId1"/>
     <sheet name="Translations" sheetId="17" r:id="rId2"/>
-    <sheet name="TRN-1079-0833-9890 (FA)" sheetId="18" r:id="rId3"/>
+    <sheet name="FA (TRN-1079-0833-9890)" sheetId="18" r:id="rId3"/>
+    <sheet name="ES (TRN-1079-0833-9891)" sheetId="19" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TRN-1079-0833-9890 (FA)'!$A:$E</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ES (TRN-1079-0833-9891)'!$A:$E</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FA (TRN-1079-0833-9890)'!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="204">
   <si>
     <t>Product information</t>
   </si>
@@ -751,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,6 +783,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1101,10 +1104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="31" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="AB1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DD5574-F1F3-8943-BAA8-7E6A93E385BA}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2282,4 +2285,430 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF8F94-C3FC-9D4C-9C2E-2F80DBB3274D}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="100" style="18" customWidth="1"/>
+    <col min="3" max="3" width="20" style="18" customWidth="1"/>
+    <col min="4" max="4" width="100" style="18" customWidth="1"/>
+    <col min="5" max="5" width="30" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{E08D48EE-84E6-514F-85ED-47E1C4EAD9CA}">
+      <formula1>"-,update"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>